--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,21 +49,12 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -76,76 +64,94 @@
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +596,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="K5">
-        <v>0.925</v>
-      </c>
-      <c r="L5">
-        <v>37</v>
-      </c>
       <c r="M5">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6948051948051948</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C6">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3571428571428572</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,219 +796,123 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>428</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L9">
+        <v>47</v>
+      </c>
+      <c r="M9">
+        <v>47</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="L10">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2918454935622318</v>
-      </c>
-      <c r="C8">
-        <v>68</v>
-      </c>
-      <c r="D8">
-        <v>68</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>165</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L8">
-        <v>48</v>
-      </c>
-      <c r="M8">
-        <v>48</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>68</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.175</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L10">
-        <v>43</v>
-      </c>
-      <c r="M10">
-        <v>43</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>98</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8431372549019608</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1014,21 +924,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1040,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7647058823529411</v>
+        <v>0.765625</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1066,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7397260273972602</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1092,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1118,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.72</v>
+        <v>0.6875</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1144,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1170,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6538461538461539</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1196,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6410256410256411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1222,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1248,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6206896551724138</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1274,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6060606060606061</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1300,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5347222222222222</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1326,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5333333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1352,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5258215962441315</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L25">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1378,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4857142857142857</v>
+        <v>0.4934725848563969</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1404,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4341085271317829</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1430,33 +1340,189 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>73</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L28">
+        <v>38</v>
+      </c>
+      <c r="M28">
+        <v>38</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>0.4101694915254237</v>
+      </c>
+      <c r="L29">
+        <v>121</v>
+      </c>
+      <c r="M29">
+        <v>121</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0.3682008368200837</v>
+      </c>
+      <c r="L31">
+        <v>88</v>
+      </c>
+      <c r="M31">
+        <v>88</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K28">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="L28">
-        <v>32</v>
-      </c>
-      <c r="M28">
-        <v>32</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>60</v>
+      <c r="K32">
+        <v>0.296875</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L33">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.006117192530585963</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>0.95</v>
+      </c>
+      <c r="O34">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,52 +49,55 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
@@ -103,30 +106,24 @@
     <t>friends</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -139,19 +136,13 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -509,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +511,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5856164383561644</v>
+        <v>0.5821917808219178</v>
       </c>
       <c r="C5">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1851851851851852</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>154</v>
+        <v>411</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1705426356589147</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>428</v>
+        <v>160</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +819,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -846,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -854,13 +845,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -872,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -880,13 +871,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -898,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -906,25 +897,25 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L11">
+        <v>91</v>
+      </c>
+      <c r="M11">
+        <v>91</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>29</v>
-      </c>
-      <c r="M11">
-        <v>29</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -932,13 +923,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7682926829268293</v>
+        <v>0.7578125</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -950,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -958,13 +949,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -976,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -984,13 +975,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7254901960784313</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1002,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1010,13 +1001,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7083333333333334</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L15">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1028,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1036,13 +1027,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6875</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1054,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1062,13 +1053,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6785714285714286</v>
+        <v>0.7125</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1080,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1088,13 +1079,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6698113207547169</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L18">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1106,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1114,13 +1105,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1132,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1140,13 +1131,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6619718309859155</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1158,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1166,13 +1157,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6349206349206349</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1184,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1192,13 +1183,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6276595744680851</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L22">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M22">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1210,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1218,13 +1209,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1236,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1270,13 +1261,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5106382978723404</v>
+        <v>0.5065274151436031</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1288,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1296,13 +1287,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4934725848563969</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L26">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="M26">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1314,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1322,13 +1313,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4352941176470588</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L27">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1340,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>192</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1348,13 +1339,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4269662921348314</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1366,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1374,13 +1365,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4101694915254237</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L29">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1392,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1400,13 +1391,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3835616438356164</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1418,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1426,13 +1417,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3682008368200837</v>
+        <v>0.3179916317991632</v>
       </c>
       <c r="L31">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M31">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1444,85 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>0.296875</v>
-      </c>
-      <c r="L32">
-        <v>19</v>
-      </c>
-      <c r="M32">
-        <v>19</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="L33">
-        <v>21</v>
-      </c>
-      <c r="M33">
-        <v>21</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34">
-        <v>0.006117192530585963</v>
-      </c>
-      <c r="L34">
-        <v>19</v>
-      </c>
-      <c r="M34">
-        <v>20</v>
-      </c>
-      <c r="N34">
-        <v>0.95</v>
-      </c>
-      <c r="O34">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>3087</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
